--- a/Sample Data/Workflow Examples/Workflow 2 - Personalized Files/Project Expertise/7 Aldo Range UniversityofLethbridge ProjectExpertise.xlsx
+++ b/Sample Data/Workflow Examples/Workflow 2 - Personalized Files/Project Expertise/7 Aldo Range UniversityofLethbridge ProjectExpertise.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bvmm\Dropbox\Berts Files\Work in DROPBOX\CoSeT\GitHub Version\Sample Data\Sample 25P 10M 3C 4R\Project Expertise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bvmm\Dropbox\Berts Files\Work in DROPBOX\CoSeT\GitHub Version\Sample Data\Workflow Examples\Workflow 2 - Personalized Files\Project Expertise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18DFFCAE-0DFE-4948-A024-51271D387B73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{396154E2-D73C-42EC-B3A7-E99C615140A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C7BE7773-616C-4890-A6CF-5C6B96C03565}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4383B8CB-E35A-4B17-B88E-440812D7F427}"/>
   </bookViews>
   <sheets>
     <sheet name="Expertise by Projects - Instr." sheetId="1" r:id="rId1"/>
@@ -40,14 +40,14 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={2759C0EC-7746-498D-90CA-47996D3584DF}</author>
-    <author>tc={5110B714-D279-4E39-91A6-49E689E23AD7}</author>
-    <author>tc={9C09B126-9810-4FC7-BFA2-C6FAF0D44D67}</author>
-    <author>tc={68CBEB39-2E56-4319-83D4-0C43FE3974C9}</author>
-    <author>tc={72E586CA-8EC5-46F5-8131-2846A613D54B}</author>
+    <author>tc={3D542C84-2F51-42B6-9417-4EAAC49FED51}</author>
+    <author>tc={A20AC60C-9E4F-4779-B51C-4B898A21FF58}</author>
+    <author>tc={BF98C66B-956B-4062-9AF9-AC8B6CA6A89D}</author>
+    <author>tc={C6EE9662-9AE0-4D4D-AA83-07C5DB7E8C92}</author>
+    <author>tc={682C72A8-B722-451B-8FF6-FB94CB63BD12}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{2759C0EC-7746-498D-90CA-47996D3584DF}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{3D542C84-2F51-42B6-9417-4EAAC49FED51}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -55,7 +55,7 @@
     Revise or delete column &amp; header.</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{5110B714-D279-4E39-91A6-49E689E23AD7}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{A20AC60C-9E4F-4779-B51C-4B898A21FF58}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,7 +63,7 @@
     Add or subtract columns as you want.</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{9C09B126-9810-4FC7-BFA2-C6FAF0D44D67}">
+    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{BF98C66B-956B-4062-9AF9-AC8B6CA6A89D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -71,7 +71,7 @@
     Revise or delete column &amp; header.</t>
       </text>
     </comment>
-    <comment ref="F1" authorId="3" shapeId="0" xr:uid="{68CBEB39-2E56-4319-83D4-0C43FE3974C9}">
+    <comment ref="F1" authorId="3" shapeId="0" xr:uid="{C6EE9662-9AE0-4D4D-AA83-07C5DB7E8C92}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -79,7 +79,7 @@
     Do not edit the text in this cell</t>
       </text>
     </comment>
-    <comment ref="G1" authorId="4" shapeId="0" xr:uid="{72E586CA-8EC5-46F5-8131-2846A613D54B}">
+    <comment ref="G1" authorId="4" shapeId="0" xr:uid="{682C72A8-B722-451B-8FF6-FB94CB63BD12}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="95">
   <si>
     <r>
       <t xml:space="preserve">In the </t>
@@ -402,9 +402,6 @@
   </si>
   <si>
     <t>M</t>
-  </si>
-  <si>
-    <t>H</t>
   </si>
 </sst>
 </file>
@@ -603,7 +600,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="bert van den Berg" id="{577B0FE9-19C5-46E0-8632-FF49FC960CBF}" userId="ee31b047394a070d" providerId="Windows Live"/>
+  <person displayName="bert van den Berg" id="{17933947-6A7D-4B6A-A049-AF2FFAE00510}" userId="ee31b047394a070d" providerId="Windows Live"/>
 </personList>
 </file>
 
@@ -904,26 +901,26 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C1" dT="2021-01-28T13:53:38.10" personId="{577B0FE9-19C5-46E0-8632-FF49FC960CBF}" id="{2759C0EC-7746-498D-90CA-47996D3584DF}">
+  <threadedComment ref="C1" dT="2021-01-28T13:53:38.10" personId="{17933947-6A7D-4B6A-A049-AF2FFAE00510}" id="{3D542C84-2F51-42B6-9417-4EAAC49FED51}">
     <text>Revise or delete column &amp; header.</text>
   </threadedComment>
-  <threadedComment ref="D1" dT="2021-01-28T13:53:13.01" personId="{577B0FE9-19C5-46E0-8632-FF49FC960CBF}" id="{5110B714-D279-4E39-91A6-49E689E23AD7}">
+  <threadedComment ref="D1" dT="2021-01-28T13:53:13.01" personId="{17933947-6A7D-4B6A-A049-AF2FFAE00510}" id="{A20AC60C-9E4F-4779-B51C-4B898A21FF58}">
     <text>Add or subtract columns as you want.</text>
   </threadedComment>
-  <threadedComment ref="E1" dT="2021-01-28T13:53:53.73" personId="{577B0FE9-19C5-46E0-8632-FF49FC960CBF}" id="{9C09B126-9810-4FC7-BFA2-C6FAF0D44D67}">
+  <threadedComment ref="E1" dT="2021-01-28T13:53:53.73" personId="{17933947-6A7D-4B6A-A049-AF2FFAE00510}" id="{BF98C66B-956B-4062-9AF9-AC8B6CA6A89D}">
     <text>Revise or delete column &amp; header.</text>
   </threadedComment>
-  <threadedComment ref="F1" dT="2021-01-28T13:47:47.80" personId="{577B0FE9-19C5-46E0-8632-FF49FC960CBF}" id="{68CBEB39-2E56-4319-83D4-0C43FE3974C9}">
+  <threadedComment ref="F1" dT="2021-01-28T13:47:47.80" personId="{17933947-6A7D-4B6A-A049-AF2FFAE00510}" id="{C6EE9662-9AE0-4D4D-AA83-07C5DB7E8C92}">
     <text>Do not edit the text in this cell</text>
   </threadedComment>
-  <threadedComment ref="G1" dT="2021-01-28T13:48:04.75" personId="{577B0FE9-19C5-46E0-8632-FF49FC960CBF}" id="{72E586CA-8EC5-46F5-8131-2846A613D54B}">
+  <threadedComment ref="G1" dT="2021-01-28T13:48:04.75" personId="{17933947-6A7D-4B6A-A049-AF2FFAE00510}" id="{682C72A8-B722-451B-8FF6-FB94CB63BD12}">
     <text>Do not edit the text in this cell</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF811D3-3519-4D0B-AF66-C9C0DF506D8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B12EE0-E97E-460D-8102-BE1D0CF8865E}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -970,7 +967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930E913B-BFA0-45EB-953A-627F2BAEC1B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAFFB00-C630-4B84-A0B1-BAC62402A1C2}">
   <sheetPr codeName="Sheet11">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -978,7 +975,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A10" sqref="A10:K10"/>
       <selection pane="bottomLeft" activeCell="F2" sqref="F2:G26"/>
     </sheetView>
   </sheetViews>
@@ -1099,7 +1096,7 @@
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1202,7 +1199,7 @@
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1243,9 +1240,7 @@
         <v>90</v>
       </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="19" t="s">
-        <v>93</v>
-      </c>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
@@ -1283,9 +1278,7 @@
         <v>90</v>
       </c>
       <c r="F13" s="18"/>
-      <c r="G13" s="19" t="s">
-        <v>93</v>
-      </c>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
@@ -1305,7 +1298,7 @@
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1325,9 +1318,7 @@
         <v>90</v>
       </c>
       <c r="F15" s="18"/>
-      <c r="G15" s="19" t="s">
-        <v>94</v>
-      </c>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
@@ -1347,7 +1338,7 @@
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1367,9 +1358,7 @@
         <v>90</v>
       </c>
       <c r="F17" s="18"/>
-      <c r="G17" s="19" t="s">
-        <v>94</v>
-      </c>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
@@ -1411,7 +1400,9 @@
         <v>90</v>
       </c>
       <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
+      <c r="G19" s="19" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
@@ -1430,9 +1421,7 @@
         <v>90</v>
       </c>
       <c r="F20" s="18"/>
-      <c r="G20" s="19" t="s">
-        <v>94</v>
-      </c>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
@@ -1472,7 +1461,9 @@
         <v>90</v>
       </c>
       <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
+      <c r="G22" s="19" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
@@ -1491,9 +1482,7 @@
         <v>90</v>
       </c>
       <c r="F23" s="18"/>
-      <c r="G23" s="19" t="s">
-        <v>95</v>
-      </c>
+      <c r="G23" s="19"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
@@ -1533,9 +1522,7 @@
         <v>90</v>
       </c>
       <c r="F25" s="18"/>
-      <c r="G25" s="19" t="s">
-        <v>93</v>
-      </c>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
@@ -1554,12 +1541,10 @@
         <v>90</v>
       </c>
       <c r="F26" s="18"/>
-      <c r="G26" s="19" t="s">
-        <v>93</v>
-      </c>
+      <c r="G26" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tAV8mbNjEamRWYssXIFR1OExWaYiw/UL30EkR+aAp7XWxXI+vtITZGBEtE3Og+HHfcqLrref946OGSpsvC4ZlA==" saltValue="bP8RQNUR20hsyk/f8UVssw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sx4PlAogWFHN1XNyJGMIT40UtuWkgJlSbNIVuIS+442adFftG/hiUxx5yI3f14uAGsv37uWCNJKM0Kl26KAotA==" saltValue="kjRhwpsu0xc6FnObABtYGQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="F1:G2" xr:uid="{2C882CF7-77D0-4BB2-911E-FEB4C8572A61}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
